--- a/Planilhas/Indicadores.xlsx
+++ b/Planilhas/Indicadores.xlsx
@@ -1320,16 +1320,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.147067325953888</v>
+        <v>0.1471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1399036168145569</v>
+        <v>0.1399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1234990641908595</v>
+        <v>0.1235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09343341218853811</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="3">
@@ -1339,16 +1339,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3269490675550366</v>
+        <v>0.3269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.397377598750331</v>
+        <v>0.3974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4123375197454121</v>
+        <v>0.4123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3679743926688135</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="4">
@@ -1358,16 +1358,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.511332780530198</v>
+        <v>2.5113</v>
       </c>
       <c r="C4" t="n">
-        <v>2.797548550789749</v>
+        <v>2.7975</v>
       </c>
       <c r="D4" t="n">
-        <v>2.874717080701513</v>
+        <v>2.8747</v>
       </c>
       <c r="E4" t="n">
-        <v>2.993083202904591</v>
+        <v>2.9931</v>
       </c>
     </row>
     <row r="5">
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1207537327580363</v>
+        <v>0.1208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555284900092028</v>
+        <v>0.1555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1463900740469023</v>
+        <v>0.1464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1029055022010627</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="6">
@@ -1396,16 +1396,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1207537327580363</v>
+        <v>0.1208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1555284900092029</v>
+        <v>0.1555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1463900740469023</v>
+        <v>0.1464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1029055022010627</v>
+        <v>0.1029</v>
       </c>
     </row>
   </sheetData>
